--- a/analyses/output/frontierstable.xlsx
+++ b/analyses/output/frontierstable.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nicole/GitHub/heattolerance/analyses/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{875F800F-B5FE-234A-B283-C07204A3B4CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7D8F8A-9D9C-0B48-A1FF-213388C91A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="960" windowWidth="24180" windowHeight="14500" xr2:uid="{126A56BE-DC1B-5D41-A9CA-E4C36A1AB63C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
   <si>
     <t>Variety</t>
   </si>
@@ -211,6 +211,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -306,19 +309,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,19 +636,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DD4BBD-44E3-DF44-8E9D-8D3540F4EF44}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:F56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.83203125" style="7"/>
-    <col min="6" max="6" width="10.83203125" style="6"/>
+    <col min="4" max="4" width="10.83203125" style="8"/>
+    <col min="6" max="6" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -655,25 +658,25 @@
       <c r="C1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="9"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -683,17 +686,21 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="7">
         <v>13.90577701</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f>IF(C3=0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -703,17 +710,21 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="7">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="7">
         <v>13.32480202</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" ref="G4:G52" si="0">IF(C4=0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -723,17 +734,21 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="7">
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="7">
         <v>13.9534995</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -743,17 +758,21 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="7">
         <v>11.11111111</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="7">
         <v>12.424395840000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -763,17 +782,21 @@
       <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="7">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="7">
         <v>13.842826670000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -783,17 +806,21 @@
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="7">
         <v>11.11111111</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="7">
         <v>14.705709690000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -803,17 +830,21 @@
       <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="7">
         <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="7">
         <v>14.66366038</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -823,17 +854,21 @@
       <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="7">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="7">
         <v>15.55223647</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -843,17 +878,21 @@
       <c r="C11" s="2">
         <v>3</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="7">
         <v>33.333333330000002</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="7">
         <v>11.59739021</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -863,17 +902,21 @@
       <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="7">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="7">
         <v>13.272022550000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -883,17 +926,21 @@
       <c r="C13" s="2">
         <v>0</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="7">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="7">
         <v>11.70141943</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -903,17 +950,21 @@
       <c r="C14" s="2">
         <v>0</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="7">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="7">
         <v>16.365451830000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -923,17 +974,21 @@
       <c r="C15" s="2">
         <v>0</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="7">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="7">
         <v>15.02306213</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -943,17 +998,21 @@
       <c r="C16" s="2">
         <v>0</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="7">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="7">
         <v>17.886619870000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -963,17 +1022,21 @@
       <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="7">
         <v>14.28571429</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="7">
         <v>14.67593836</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -983,17 +1046,21 @@
       <c r="C18" s="2">
         <v>5</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="7">
         <v>71.428571399999996</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="7">
         <v>11.0632725</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1003,17 +1070,21 @@
       <c r="C19" s="2">
         <v>0</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="7">
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="7">
         <v>11.744168289999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1023,17 +1094,21 @@
       <c r="C20" s="2">
         <v>0</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="7">
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="7">
         <v>14.976410019999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1043,17 +1118,21 @@
       <c r="C21" s="2">
         <v>4</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="7">
         <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="7">
         <v>12.875558229999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1063,17 +1142,21 @@
       <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="7">
         <v>11.11111111</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="7">
         <v>12.453076279999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1083,17 +1166,21 @@
       <c r="C23" s="2">
         <v>0</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="7">
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="7">
         <v>14.86512484</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1103,17 +1190,21 @@
       <c r="C24" s="2">
         <v>0</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="7">
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="7">
         <v>11.20999857</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1123,17 +1214,21 @@
       <c r="C25" s="2">
         <v>0</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="7">
         <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="7">
         <v>15.655725370000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1143,17 +1238,21 @@
       <c r="C26" s="2">
         <v>2</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="7">
         <v>22.222222219999999</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="7">
         <v>14.2368048</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1163,17 +1262,21 @@
       <c r="C27" s="2">
         <v>0</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="7">
         <v>0</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="7">
         <v>14.32830313</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1183,17 +1286,21 @@
       <c r="C28" s="2">
         <v>0</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="7">
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="7">
         <v>13.948254990000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1203,17 +1310,21 @@
       <c r="C29" s="2">
         <v>0</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="7">
         <v>0</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="7">
         <v>15.710675309999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1223,17 +1334,21 @@
       <c r="C30" s="2">
         <v>0</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="7">
         <v>0</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="7">
         <v>13.641706900000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1243,17 +1358,21 @@
       <c r="C31" s="2">
         <v>0</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="7">
         <v>0</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="7">
         <v>14.879553509999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1263,17 +1382,21 @@
       <c r="C32" s="2">
         <v>1</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="7">
         <v>12.5</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="7">
         <v>13.89299853</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1283,17 +1406,21 @@
       <c r="C33" s="2">
         <v>3</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="7">
         <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="7">
         <v>13.73747328</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f>IF(C33=0,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1303,419 +1430,466 @@
       <c r="C34" s="2">
         <v>3</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="7">
         <v>60</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="7">
         <v>10.7102415</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="7">
+        <v>14.522801940000001</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="7">
+        <v>16.308200679999999</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7">
+        <v>14.28571429</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="7">
+        <v>14.453625199999999</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="7">
+        <v>16.778799920000001</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2">
+        <v>8</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4</v>
+      </c>
+      <c r="D39" s="7">
+        <v>50</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="7">
+        <v>15.757926449999999</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="2">
         <v>6</v>
       </c>
-      <c r="C39" s="2">
-        <v>0</v>
-      </c>
-      <c r="D39" s="5">
-        <v>0</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="5">
-        <v>14.522801940000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="2">
-        <v>5</v>
-      </c>
       <c r="C40" s="2">
         <v>0</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="7">
         <v>0</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="5">
-        <v>16.308200679999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F40" s="7">
+        <v>16.007314279999999</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2">
         <v>7</v>
       </c>
       <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="5">
-        <v>14.28571429</v>
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="5">
-        <v>14.453625199999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F41" s="7">
+        <v>13.064630940000001</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" s="2">
-        <v>0</v>
-      </c>
-      <c r="D42" s="5">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D42" s="7">
+        <v>42.857142860000003</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="5">
-        <v>16.778799920000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F42" s="7">
+        <v>15.750549960000001</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2">
         <v>8</v>
       </c>
       <c r="C43" s="2">
-        <v>4</v>
-      </c>
-      <c r="D43" s="5">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="5">
-        <v>15.757926449999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="7">
+        <v>14.685816770000001</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C44" s="2">
-        <v>0</v>
-      </c>
-      <c r="D44" s="5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D44" s="7">
+        <v>12.5</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="5">
-        <v>16.007314279999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F44" s="7">
+        <v>13.78461575</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2">
         <v>7</v>
       </c>
       <c r="C45" s="2">
-        <v>0</v>
-      </c>
-      <c r="D45" s="5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>14.28571429</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="5">
-        <v>13.064630940000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F45" s="7">
+        <v>13.51749972</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C46" s="2">
-        <v>3</v>
-      </c>
-      <c r="D46" s="5">
-        <v>42.857142860000003</v>
+        <v>5</v>
+      </c>
+      <c r="D46" s="7">
+        <v>41.666666669999998</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="5">
-        <v>15.750549960000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="7">
+        <v>14.63416892</v>
+      </c>
+      <c r="G46">
+        <f>IF(C46=0,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="7">
+        <v>20</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="7">
+        <v>16.640690079999999</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2">
+        <v>5</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="7">
+        <v>18.405477189999999</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="2">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2">
+        <v>5</v>
+      </c>
+      <c r="D49" s="7">
+        <v>83.333333330000002</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="7">
+        <v>11.08427436</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="2">
         <v>8</v>
       </c>
-      <c r="C47" s="2">
-        <v>0</v>
-      </c>
-      <c r="D47" s="5">
-        <v>0</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="5">
-        <v>14.685816770000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="2">
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="7">
+        <v>15.5865416</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="2">
         <v>8</v>
       </c>
-      <c r="C48" s="2">
-        <v>1</v>
-      </c>
-      <c r="D48" s="5">
-        <v>12.5</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="5">
-        <v>13.78461575</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="2">
-        <v>7</v>
-      </c>
-      <c r="C49" s="2">
-        <v>1</v>
-      </c>
-      <c r="D49" s="5">
-        <v>14.28571429</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="5">
-        <v>13.51749972</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="2">
-        <v>12</v>
-      </c>
-      <c r="C50" s="2">
-        <v>5</v>
-      </c>
-      <c r="D50" s="5">
-        <v>41.666666669999998</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="5">
-        <v>14.63416892</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="2">
-        <v>5</v>
-      </c>
       <c r="C51" s="2">
-        <v>1</v>
-      </c>
-      <c r="D51" s="5">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" s="5">
-        <v>16.640690079999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F51" s="7">
+        <v>14.421656690000001</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B52" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="7">
         <v>0</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="5">
-        <v>18.405477189999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="2">
-        <v>6</v>
-      </c>
-      <c r="C53" s="2">
-        <v>5</v>
-      </c>
-      <c r="D53" s="5">
-        <v>83.333333330000002</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" s="5">
-        <v>11.08427436</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="2">
-        <v>8</v>
-      </c>
-      <c r="C54" s="2">
-        <v>1</v>
-      </c>
-      <c r="D54" s="5">
-        <v>12.5</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="5">
-        <v>15.5865416</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="2">
-        <v>8</v>
-      </c>
-      <c r="C55" s="2">
-        <v>0</v>
-      </c>
-      <c r="D55" s="5">
-        <v>0</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="5">
-        <v>14.421656690000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="2">
-        <v>6</v>
-      </c>
-      <c r="C56" s="2">
-        <v>0</v>
-      </c>
-      <c r="D56" s="5">
-        <v>0</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="5">
+      <c r="F52" s="7">
         <v>15.015168450000001</v>
       </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <f>SUM(G3:G52)</f>
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
+  <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="F37:F38"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
